--- a/ourClusterInfo.xlsx
+++ b/ourClusterInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>hadoop集群</t>
   </si>
@@ -37,6 +37,15 @@
     <t>hadoop104</t>
   </si>
   <si>
+    <t>业务方</t>
+  </si>
+  <si>
+    <t>ngix</t>
+  </si>
+  <si>
+    <t>日志服务器</t>
+  </si>
+  <si>
     <t>hadoop</t>
   </si>
   <si>
@@ -47,6 +56,33 @@
   </si>
   <si>
     <t>nameNode（HA）</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>flink</t>
+  </si>
+  <si>
+    <t>flume</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>echart</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>kibana</t>
+  </si>
+  <si>
+    <t>hbase</t>
   </si>
 </sst>
 </file>
@@ -59,7 +95,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,10 +104,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -83,6 +142,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +165,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -99,88 +196,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -196,9 +218,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,31 +265,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,151 +433,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +456,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -427,16 +480,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,40 +510,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +541,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -520,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,142 +576,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -988,13 +1038,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G6"/>
+  <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
@@ -1028,7 +1078,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
@@ -1036,21 +1086,81 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/ourClusterInfo.xlsx
+++ b/ourClusterInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>hadoop集群</t>
   </si>
@@ -43,6 +43,9 @@
     <t>ngix</t>
   </si>
   <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>日志服务器</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>nameNode（HA）</t>
   </si>
   <si>
+    <t>hive</t>
+  </si>
+  <si>
     <t>kafka</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>flink</t>
   </si>
   <si>
+    <t>presto</t>
+  </si>
+  <si>
     <t>flume</t>
   </si>
   <si>
@@ -79,10 +88,16 @@
     <t>es</t>
   </si>
   <si>
+    <t>√(应该单放某节点）</t>
+  </si>
+  <si>
     <t>kibana</t>
   </si>
   <si>
     <t>hbase</t>
+  </si>
+  <si>
+    <t>azkaban</t>
   </si>
 </sst>
 </file>
@@ -95,7 +110,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +122,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -564,10 +602,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,148 +614,184 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1038,129 +1112,243 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="7" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="17.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="4" customWidth="1"/>
+    <col min="4" max="7" width="13.25" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+      <c r="G6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:7">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="3" t="s">
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:4">
+      <c r="A8" s="12"/>
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:5">
+      <c r="A9" s="13"/>
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="3" t="s">
+      <c r="E9" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="2:3">
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+      <c r="C11" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="2:7">
+      <c r="B13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="17" ht="27" spans="2:7">
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="2:7">
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A1:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/ourClusterInfo.xlsx
+++ b/ourClusterInfo.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>hadoop集群</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>安装情况</t>
+  </si>
+  <si>
     <t>组件\节点</t>
   </si>
   <si>
@@ -52,15 +58,34 @@
     <t>hadoop</t>
   </si>
   <si>
-    <t>yarn</t>
-  </si>
-  <si>
-    <t>hdfs</t>
+    <t>历史服务器web：hadoop104:19888</t>
+  </si>
+  <si>
+    <t>安装</t>
+  </si>
+  <si>
+    <t>datanode</t>
+  </si>
+  <si>
+    <t>journalNode(hadoop100,hadoop101)</t>
   </si>
   <si>
     <t>nameNode（HA）</t>
   </si>
   <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>内部rpc:9000
+http uI: 9870</t>
+  </si>
+  <si>
+    <t>zookeeper</t>
+  </si>
+  <si>
     <t>hive</t>
   </si>
   <si>
@@ -82,6 +107,9 @@
     <t>mysql</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
     <t>echart</t>
   </si>
   <si>
@@ -98,6 +126,15 @@
   </si>
   <si>
     <t>azkaban</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>sqoop</t>
+  </si>
+  <si>
+    <t>maxwell</t>
   </si>
 </sst>
 </file>
@@ -105,9 +142,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -151,6 +188,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -158,7 +202,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,8 +276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,90 +286,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,187 +340,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +531,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,54 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -602,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,137 +651,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,32 +800,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1112,242 +1125,335 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="17.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="4" customWidth="1"/>
     <col min="4" max="7" width="13.25" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="8" max="8" width="47.25" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7"/>
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="9" t="s">
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11" t="s">
+      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="9" t="s">
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:9">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="2:3">
-      <c r="B11" s="11" t="s">
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="9" t="s">
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:4">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="2:7">
-      <c r="B13" s="11" t="s">
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="2:7">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="4" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" spans="2:9">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="4" t="s">
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:9">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" ht="27" spans="2:7">
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="2:5">
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="2:3">
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="2:7">
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="2:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:9">
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
       <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="2:8">
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="2:8">
+      <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A6:A10"/>
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ourClusterInfo.xlsx
+++ b/ourClusterInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>hadoop集群</t>
   </si>
@@ -131,10 +131,22 @@
     <t>redis</t>
   </si>
   <si>
+    <t>3主三从</t>
+  </si>
+  <si>
     <t>sqoop</t>
   </si>
   <si>
     <t>maxwell</t>
+  </si>
+  <si>
+    <t>魏传富</t>
+  </si>
+  <si>
+    <t>docker</t>
+  </si>
+  <si>
+    <t>主脚本zhm_all_cluster.sh位于hadoop102上</t>
   </si>
 </sst>
 </file>
@@ -142,9 +154,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -188,21 +200,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,47 +283,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,9 +314,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,50 +329,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -340,187 +352,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,17 +549,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,11 +600,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,32 +626,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,10 +651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +663,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1247,7 +1259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="2:4">
+    <row r="8" s="2" customFormat="1" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1255,6 +1267,9 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1431,30 +1446,58 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:8">
       <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A29:G31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
